--- a/performance_data.xlsx
+++ b/performance_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,73 +436,21 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Average Memory Usage (MB)</t>
+          <t>Average State Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Peak Memory Usage (MB)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Execution Time (s)</t>
+          <t>Peak State Number</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101.5130447247706</v>
+        <v>255765.3</v>
       </c>
       <c r="B2" t="n">
-        <v>121.8203125</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.800178050994873</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1661.141578578121</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3205.29296875</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1075.154393434525</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>772.6217447916666</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3205.3046875</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.188568592071533</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2667.193082662974</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5192.96875</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1835.912057638168</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>291.4170532226562</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5192.96875</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.637959003448486</v>
+        <v>978465</v>
       </c>
     </row>
   </sheetData>

--- a/performance_data.xlsx
+++ b/performance_data.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>255765.3</v>
+        <v>280048.86</v>
       </c>
       <c r="B2" t="n">
-        <v>978465</v>
+        <v>7154951</v>
       </c>
     </row>
   </sheetData>

--- a/performance_data.xlsx
+++ b/performance_data.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>280048.86</v>
+        <v>16418.66</v>
       </c>
       <c r="B2" t="n">
-        <v>7154951</v>
+        <v>264260</v>
       </c>
     </row>
   </sheetData>
